--- a/Code/Results/Cases/Case_1_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.286692136145888</v>
+        <v>0.4587784673220199</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04652126754610464</v>
+        <v>0.2194335328818973</v>
       </c>
       <c r="E2">
-        <v>0.02660117449262334</v>
+        <v>0.1452770811831083</v>
       </c>
       <c r="F2">
-        <v>0.5497970508754833</v>
+        <v>0.8257246146173074</v>
       </c>
       <c r="G2">
-        <v>0.4786985428347634</v>
+        <v>0.3995463891372708</v>
       </c>
       <c r="H2">
-        <v>0.2878532272101779</v>
+        <v>0.5241085935554253</v>
       </c>
       <c r="I2">
-        <v>2.502853687310392</v>
+        <v>1.054375338444487</v>
       </c>
       <c r="J2">
-        <v>0.04335695654830829</v>
+        <v>0.139081600977164</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.545607365304406</v>
+        <v>1.688862129694087</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.569946458043688</v>
+        <v>1.791829452560165</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.118952848742964</v>
+        <v>0.4029174815801184</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05057541737070004</v>
+        <v>0.2231179463799133</v>
       </c>
       <c r="E3">
-        <v>0.03047555788741452</v>
+        <v>0.1487658639803442</v>
       </c>
       <c r="F3">
-        <v>0.5003515713811169</v>
+        <v>0.824837045401928</v>
       </c>
       <c r="G3">
-        <v>0.4209049451075941</v>
+        <v>0.3904856432766479</v>
       </c>
       <c r="H3">
-        <v>0.26708115738532</v>
+        <v>0.5243847230650829</v>
       </c>
       <c r="I3">
-        <v>2.203947040849215</v>
+        <v>0.961619056993996</v>
       </c>
       <c r="J3">
-        <v>0.04481846306934045</v>
+        <v>0.1421067658121089</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.964531538576622</v>
+        <v>1.491933859935628</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.403514635746859</v>
+        <v>1.772863791967353</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.016170345740733</v>
+        <v>0.368474994892722</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05328071458106898</v>
+        <v>0.2255144771000523</v>
       </c>
       <c r="E4">
-        <v>0.03310543578899061</v>
+        <v>0.151039282539327</v>
       </c>
       <c r="F4">
-        <v>0.4716471194135536</v>
+        <v>0.8249840607728487</v>
       </c>
       <c r="G4">
-        <v>0.3865821485005796</v>
+        <v>0.3853062208217324</v>
       </c>
       <c r="H4">
-        <v>0.255026289445297</v>
+        <v>0.5248901381313829</v>
       </c>
       <c r="I4">
-        <v>2.022030274560095</v>
+        <v>0.9050041978951811</v>
       </c>
       <c r="J4">
-        <v>0.04605080534971151</v>
+        <v>0.1441171771289262</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.606963774407859</v>
+        <v>1.370363517415143</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.305241674247526</v>
+        <v>1.76272372683303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9743193636614365</v>
+        <v>0.3544040846944654</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05443534205423894</v>
+        <v>0.2265248070752808</v>
       </c>
       <c r="E5">
-        <v>0.03423707951120569</v>
+        <v>0.1519986560217337</v>
       </c>
       <c r="F5">
-        <v>0.4603342532069519</v>
+        <v>0.8252173736551569</v>
       </c>
       <c r="G5">
-        <v>0.372861027946243</v>
+        <v>0.3832915930706804</v>
       </c>
       <c r="H5">
-        <v>0.2502774527433047</v>
+        <v>0.525180415192338</v>
       </c>
       <c r="I5">
-        <v>1.948258443190582</v>
+        <v>0.8820202403759936</v>
       </c>
       <c r="J5">
-        <v>0.04663221339687595</v>
+        <v>0.1449747945099702</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.461033623000802</v>
+        <v>1.320662736533194</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.266097426089573</v>
+        <v>1.75896861192021</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.967371544948179</v>
+        <v>0.3520655116020919</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05463015923248271</v>
+        <v>0.2266946071930338</v>
       </c>
       <c r="E6">
-        <v>0.03442851927080692</v>
+        <v>0.1521599463065444</v>
       </c>
       <c r="F6">
-        <v>0.458478081942971</v>
+        <v>0.8252665705231124</v>
       </c>
       <c r="G6">
-        <v>0.3705979420662828</v>
+        <v>0.382962850670566</v>
       </c>
       <c r="H6">
-        <v>0.2494984499924158</v>
+        <v>0.5252337038514412</v>
       </c>
       <c r="I6">
-        <v>1.936029227213979</v>
+        <v>0.8782090928121988</v>
       </c>
       <c r="J6">
-        <v>0.04673339926829811</v>
+        <v>0.1451195150332261</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.436788280890056</v>
+        <v>1.312400451077778</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.259649764327577</v>
+        <v>1.758367809997253</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.015605816460265</v>
+        <v>0.3682853716031502</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05329607768860356</v>
+        <v>0.225527966272848</v>
       </c>
       <c r="E7">
-        <v>0.0331204588727374</v>
+        <v>0.1510520877288117</v>
       </c>
       <c r="F7">
-        <v>0.4714930343711643</v>
+        <v>0.8249865060132962</v>
       </c>
       <c r="G7">
-        <v>0.3863960590451967</v>
+        <v>0.3852786627062841</v>
       </c>
       <c r="H7">
-        <v>0.2549615981313593</v>
+        <v>0.5248937117052321</v>
       </c>
       <c r="I7">
-        <v>2.021033958105036</v>
+        <v>0.9046938728842946</v>
       </c>
       <c r="J7">
-        <v>0.04605833208317733</v>
+        <v>0.1441285880802745</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.604996619401945</v>
+        <v>1.369693876004305</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.304710211135045</v>
+        <v>1.762671559244751</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.228800037178615</v>
+        <v>0.4395478606005554</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04787299227507802</v>
+        <v>0.2206760222655664</v>
       </c>
       <c r="E8">
-        <v>0.02788301186785702</v>
+        <v>0.1464527176387866</v>
       </c>
       <c r="F8">
-        <v>0.532384999554985</v>
+        <v>0.8252745939522796</v>
       </c>
       <c r="G8">
-        <v>0.4585134515808704</v>
+        <v>0.396342253326182</v>
       </c>
       <c r="H8">
-        <v>0.2805383102946735</v>
+        <v>0.5241340068263582</v>
       </c>
       <c r="I8">
-        <v>2.399427672581723</v>
+        <v>1.022324052184814</v>
       </c>
       <c r="J8">
-        <v>0.04378825274759279</v>
+        <v>0.140092872153879</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.345401637206166</v>
+        <v>1.621100232345185</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.511696892507246</v>
+        <v>1.78497690312301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.64949412556129</v>
+        <v>0.5781265642575306</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03905283586226993</v>
+        <v>0.2122286397507729</v>
       </c>
       <c r="E9">
-        <v>0.01975492160153536</v>
+        <v>0.1384784527218361</v>
       </c>
       <c r="F9">
-        <v>0.6664581476168507</v>
+        <v>0.8313585810149107</v>
       </c>
       <c r="G9">
-        <v>0.6104484817166167</v>
+        <v>0.4211086567763118</v>
       </c>
       <c r="H9">
-        <v>0.3368319963094848</v>
+        <v>0.5253162531437567</v>
       </c>
       <c r="I9">
-        <v>3.156498110594541</v>
+        <v>1.255600870901191</v>
       </c>
       <c r="J9">
-        <v>0.04223565479188451</v>
+        <v>0.1333970069726931</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.792269778457381</v>
+        <v>2.108712590691823</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.952639974567433</v>
+        <v>1.840725731586275</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.961642124173125</v>
+        <v>0.6792036155396488</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03382569793867241</v>
+        <v>0.2066751752465059</v>
       </c>
       <c r="E10">
-        <v>0.01531273759923302</v>
+        <v>0.1332612873910346</v>
       </c>
       <c r="F10">
-        <v>0.7761854872968001</v>
+        <v>0.8392342331979421</v>
       </c>
       <c r="G10">
-        <v>0.7304115984239132</v>
+        <v>0.4412128567615099</v>
       </c>
       <c r="H10">
-        <v>0.3828150058252504</v>
+        <v>0.527824524396749</v>
       </c>
       <c r="I10">
-        <v>3.725337006731252</v>
+        <v>1.428497202878788</v>
       </c>
       <c r="J10">
-        <v>0.04322212479438647</v>
+        <v>0.129226540876715</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>6.854138167882013</v>
+        <v>2.463450805740081</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.303898297633509</v>
+        <v>1.889104857935308</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.104670757753354</v>
+        <v>0.7250218973471192</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03175467128016507</v>
+        <v>0.2042909735779954</v>
       </c>
       <c r="E11">
-        <v>0.01367768336332897</v>
+        <v>0.1310281137320004</v>
       </c>
       <c r="F11">
-        <v>0.8290924713020331</v>
+        <v>0.8435655465445535</v>
       </c>
       <c r="G11">
-        <v>0.7872631197053011</v>
+        <v>0.4507810795431055</v>
       </c>
       <c r="H11">
-        <v>0.4049517793184947</v>
+        <v>0.5293240174856635</v>
       </c>
       <c r="I11">
-        <v>3.987705968326424</v>
+        <v>1.507465272804438</v>
       </c>
       <c r="J11">
-        <v>0.04422002938473568</v>
+        <v>0.1274933242362692</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.337461496897703</v>
+        <v>2.624024511360403</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.471060233709835</v>
+        <v>1.912746947153465</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.159012389054624</v>
+        <v>0.7423482154043199</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03101769643539143</v>
+        <v>0.2034086161151993</v>
       </c>
       <c r="E12">
-        <v>0.01311888874545097</v>
+        <v>0.1302027061228639</v>
       </c>
       <c r="F12">
-        <v>0.8496073112086293</v>
+        <v>0.8453140411720312</v>
       </c>
       <c r="G12">
-        <v>0.8091615983399976</v>
+        <v>0.4544656905315776</v>
       </c>
       <c r="H12">
-        <v>0.4135291392605467</v>
+        <v>0.5299435582518157</v>
       </c>
       <c r="I12">
-        <v>4.087652906244557</v>
+        <v>1.537412456396339</v>
       </c>
       <c r="J12">
-        <v>0.04468485970152258</v>
+        <v>0.1268606965100574</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7.520567563864205</v>
+        <v>2.684710488730843</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.535551118719724</v>
+        <v>1.921936202998296</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.147300419307783</v>
+        <v>0.7386177650551531</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03117426174341276</v>
+        <v>0.2035977355070955</v>
       </c>
       <c r="E13">
-        <v>0.01323646822502589</v>
+        <v>0.1303795704253137</v>
       </c>
       <c r="F13">
-        <v>0.8451668799361585</v>
+        <v>0.8449326433947562</v>
       </c>
       <c r="G13">
-        <v>0.804428200333561</v>
+        <v>0.4536694071630905</v>
       </c>
       <c r="H13">
-        <v>0.4116728681725021</v>
+        <v>0.5298078263360537</v>
       </c>
       <c r="I13">
-        <v>4.06609987304418</v>
+        <v>1.530960880130294</v>
       </c>
       <c r="J13">
-        <v>0.04458074899234532</v>
+        <v>0.1269958879192146</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7.481128020111726</v>
+        <v>2.671646084265149</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.521606723272612</v>
+        <v>1.919946589382619</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.10913768298667</v>
+        <v>0.7264478305904163</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03169307350088957</v>
+        <v>0.2042179705773943</v>
       </c>
       <c r="E14">
-        <v>0.01363047173900167</v>
+        <v>0.1309598006313717</v>
       </c>
       <c r="F14">
-        <v>0.8307703163214484</v>
+        <v>0.8437072215368744</v>
       </c>
       <c r="G14">
-        <v>0.7890570498063028</v>
+        <v>0.4510829823865379</v>
       </c>
       <c r="H14">
-        <v>0.4056534260379578</v>
+        <v>0.5293739500636718</v>
       </c>
       <c r="I14">
-        <v>3.99591631142394</v>
+        <v>1.509928180344644</v>
       </c>
       <c r="J14">
-        <v>0.04425648064032828</v>
+        <v>0.1274408017734672</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7.352523838881979</v>
+        <v>2.629019612450577</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.476341297613857</v>
+        <v>1.913498204079531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.085786300837583</v>
+        <v>0.7189902377319299</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03201711524014073</v>
+        <v>0.2046005522199383</v>
       </c>
       <c r="E15">
-        <v>0.01387982359978945</v>
+        <v>0.1313178479345058</v>
       </c>
       <c r="F15">
-        <v>0.8220160839222217</v>
+        <v>0.8429707415237999</v>
       </c>
       <c r="G15">
-        <v>0.7796912811836023</v>
+        <v>0.4495067260321974</v>
       </c>
       <c r="H15">
-        <v>0.4019922955499595</v>
+        <v>0.5291149281609364</v>
       </c>
       <c r="I15">
-        <v>3.953006503242818</v>
+        <v>1.497050680483312</v>
       </c>
       <c r="J15">
-        <v>0.04406942801517744</v>
+        <v>0.1277164151207231</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7.273762088947677</v>
+        <v>2.602893919735806</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.448773978471621</v>
+        <v>1.909579227393692</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.95231824833553</v>
+        <v>0.6762059550069921</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03396748328236399</v>
+        <v>0.2068338524601732</v>
       </c>
       <c r="E16">
-        <v>0.01542776394905854</v>
+        <v>0.133410058619484</v>
       </c>
       <c r="F16">
-        <v>0.7727922631523398</v>
+        <v>0.8389662932640363</v>
       </c>
       <c r="G16">
-        <v>0.7267456198524087</v>
+        <v>0.4405961038272892</v>
       </c>
       <c r="H16">
-        <v>0.3813944613030031</v>
+        <v>0.5277337566516991</v>
       </c>
       <c r="I16">
-        <v>3.708269362913541</v>
+        <v>1.423342666385054</v>
       </c>
       <c r="J16">
-        <v>0.04316862667770494</v>
+        <v>0.1293431206498212</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6.822560902852558</v>
+        <v>2.452940441451972</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.29313310279548</v>
+        <v>1.887592805414897</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.870725591276738</v>
+        <v>0.6499171049117649</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03524473267955308</v>
+        <v>0.2082403432064197</v>
       </c>
       <c r="E17">
-        <v>0.01647953330497298</v>
+        <v>0.1347295227962082</v>
       </c>
       <c r="F17">
-        <v>0.7433954846343767</v>
+        <v>0.8367019134886959</v>
       </c>
       <c r="G17">
-        <v>0.6948779954874595</v>
+        <v>0.435238383621666</v>
       </c>
       <c r="H17">
-        <v>0.3690838153028295</v>
+        <v>0.5269783844717892</v>
       </c>
       <c r="I17">
-        <v>3.559105212271419</v>
+        <v>1.378204955459836</v>
       </c>
       <c r="J17">
-        <v>0.04276213596781986</v>
+        <v>0.1303831337505059</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.545862646683474</v>
+        <v>2.360740760309142</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.199629967864155</v>
+        <v>1.874524480772891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.823890648223767</v>
+        <v>0.6347812322232755</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03600805078037439</v>
+        <v>0.2090626910916846</v>
       </c>
       <c r="E18">
-        <v>0.01712047358304147</v>
+        <v>0.1355016287318431</v>
       </c>
       <c r="F18">
-        <v>0.7267655815184355</v>
+        <v>0.835469927872353</v>
       </c>
       <c r="G18">
-        <v>0.6767604267572551</v>
+        <v>0.4321965206532781</v>
       </c>
       <c r="H18">
-        <v>0.3621165306144292</v>
+        <v>0.5265776450184347</v>
       </c>
       <c r="I18">
-        <v>3.473643999354408</v>
+        <v>1.352272849441903</v>
       </c>
       <c r="J18">
-        <v>0.04257950677878952</v>
+        <v>0.1309967456906165</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.386736101329518</v>
+        <v>2.307635077417842</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.146534985402013</v>
+        <v>1.867161652543672</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.80804853827803</v>
+        <v>0.6296538947531474</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03627133007034899</v>
+        <v>0.2093434188782446</v>
       </c>
       <c r="E19">
-        <v>0.01734352323702648</v>
+        <v>0.1357653122032207</v>
       </c>
       <c r="F19">
-        <v>0.7211813330046795</v>
+        <v>0.835064874061203</v>
       </c>
       <c r="G19">
-        <v>0.6706612847679168</v>
+        <v>0.4311734095953454</v>
       </c>
       <c r="H19">
-        <v>0.3597764529565239</v>
+        <v>0.5264477496790079</v>
       </c>
       <c r="I19">
-        <v>3.44476347738123</v>
+        <v>1.343497878663356</v>
       </c>
       <c r="J19">
-        <v>0.04252622838802722</v>
+        <v>0.1312071493493789</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.332861310007132</v>
+        <v>2.289641700547065</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.12867189279055</v>
+        <v>1.864695081842257</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.879401217138309</v>
+        <v>0.6527171787537611</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03510577707660723</v>
+        <v>0.2080892355575479</v>
       </c>
       <c r="E20">
-        <v>0.01636381152599853</v>
+        <v>0.1345876982944105</v>
       </c>
       <c r="F20">
-        <v>0.7464956654162336</v>
+        <v>0.8369356669432904</v>
       </c>
       <c r="G20">
-        <v>0.6982481386843347</v>
+        <v>0.4358046035291636</v>
       </c>
       <c r="H20">
-        <v>0.3703824253962011</v>
+        <v>0.5270553029142775</v>
       </c>
       <c r="I20">
-        <v>3.574948889502537</v>
+        <v>1.383006859720325</v>
       </c>
       <c r="J20">
-        <v>0.04280005565087563</v>
+        <v>0.1302708253389753</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>6.575314976903343</v>
+        <v>2.370563358310875</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.209511677056497</v>
+        <v>1.875899705128063</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.120341859580833</v>
+        <v>0.7300230944838404</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03153937650990457</v>
+        <v>0.204035236031288</v>
       </c>
       <c r="E21">
-        <v>0.01351306408736974</v>
+        <v>0.1307888227057123</v>
       </c>
       <c r="F21">
-        <v>0.8349854870231326</v>
+        <v>0.8440642125538886</v>
       </c>
       <c r="G21">
-        <v>0.7935615320343601</v>
+        <v>0.4518410091440757</v>
       </c>
       <c r="H21">
-        <v>0.4074160368714814</v>
+        <v>0.5294999851656286</v>
       </c>
       <c r="I21">
-        <v>4.016514181388857</v>
+        <v>1.516104822756347</v>
       </c>
       <c r="J21">
-        <v>0.04434929951218436</v>
+        <v>0.1273094754458555</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>7.390295415749648</v>
+        <v>2.641543331128304</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.489603454143065</v>
+        <v>1.915385820276555</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.278875050248018</v>
+        <v>0.7804063443278437</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02948573265205567</v>
+        <v>0.2015051577107805</v>
       </c>
       <c r="E22">
-        <v>0.01200434984288812</v>
+        <v>0.1284240959802059</v>
       </c>
       <c r="F22">
-        <v>0.8956434440865451</v>
+        <v>0.8493548109438791</v>
       </c>
       <c r="G22">
-        <v>0.8580334944503676</v>
+        <v>0.462679473436026</v>
       </c>
       <c r="H22">
-        <v>0.4327643966118018</v>
+        <v>0.5313992405141192</v>
       </c>
       <c r="I22">
-        <v>4.308601983627966</v>
+        <v>1.603345883954262</v>
       </c>
       <c r="J22">
-        <v>0.04587280383138292</v>
+        <v>0.1255122866399319</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>7.923433456959799</v>
+        <v>2.817943866935337</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.679666137038396</v>
+        <v>1.942571540708741</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.194154369103728</v>
+        <v>0.7535289655561996</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03055533322398674</v>
+        <v>0.2028445609502203</v>
       </c>
       <c r="E23">
-        <v>0.01277542780248542</v>
+        <v>0.1296753614042974</v>
       </c>
       <c r="F23">
-        <v>0.8629930689413499</v>
+        <v>0.8464731001840988</v>
       </c>
       <c r="G23">
-        <v>0.8234092894530818</v>
+        <v>0.4568618672442</v>
       </c>
       <c r="H23">
-        <v>0.4191239119582377</v>
+        <v>0.5303579281152508</v>
       </c>
       <c r="I23">
-        <v>4.152362290215251</v>
+        <v>1.556761052234663</v>
       </c>
       <c r="J23">
-        <v>0.04501011089976714</v>
+        <v>0.1264587898118208</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7.638826478060821</v>
+        <v>2.723861305318991</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.577539060101685</v>
+        <v>1.927935307278375</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.875478739285654</v>
+        <v>0.6514513340375174</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03516850878002309</v>
+        <v>0.2081575085371199</v>
       </c>
       <c r="E24">
-        <v>0.01641601675362114</v>
+        <v>0.1346517750164526</v>
       </c>
       <c r="F24">
-        <v>0.7450932342513141</v>
+        <v>0.8368297695163847</v>
       </c>
       <c r="G24">
-        <v>0.6967238660714372</v>
+        <v>0.4355484960554605</v>
       </c>
       <c r="H24">
-        <v>0.3697949817521646</v>
+        <v>0.5270204236381346</v>
       </c>
       <c r="I24">
-        <v>3.567785049045995</v>
+        <v>1.380835862081938</v>
       </c>
       <c r="J24">
-        <v>0.04278275369281914</v>
+        <v>0.130321551090681</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>6.56199973429662</v>
+        <v>2.366122869308867</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.205042106493551</v>
+        <v>1.875277498047012</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.535260545618286</v>
+        <v>0.5407649891818096</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04123006238785187</v>
+        <v>0.2143993949582494</v>
       </c>
       <c r="E25">
-        <v>0.02170231109543863</v>
+        <v>0.140523364711048</v>
       </c>
       <c r="F25">
-        <v>0.6283922512578499</v>
+        <v>0.829117586449712</v>
       </c>
       <c r="G25">
-        <v>0.5680302934967187</v>
+        <v>0.4140761861655449</v>
       </c>
       <c r="H25">
-        <v>0.320858899068071</v>
+        <v>0.5247092557513469</v>
       </c>
       <c r="I25">
-        <v>2.949742065448149</v>
+        <v>1.192223029368051</v>
       </c>
       <c r="J25">
-        <v>0.04230982982112863</v>
+        <v>0.1350773524862809</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.401208692091728</v>
+        <v>1.977401309736734</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.829015894332684</v>
+        <v>1.824348299289767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4587784673220199</v>
+        <v>1.28669213614603</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2194335328818973</v>
+        <v>0.0465212675459945</v>
       </c>
       <c r="E2">
-        <v>0.1452770811831083</v>
+        <v>0.02660117449259314</v>
       </c>
       <c r="F2">
-        <v>0.8257246146173074</v>
+        <v>0.5497970508754833</v>
       </c>
       <c r="G2">
-        <v>0.3995463891372708</v>
+        <v>0.4786985428348061</v>
       </c>
       <c r="H2">
-        <v>0.5241085935554253</v>
+        <v>0.2878532272101779</v>
       </c>
       <c r="I2">
-        <v>1.054375338444487</v>
+        <v>2.502853687310406</v>
       </c>
       <c r="J2">
-        <v>0.139081600977164</v>
+        <v>0.04335695654823013</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.688862129694087</v>
+        <v>4.545607365304377</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.791829452560165</v>
+        <v>1.569946458043717</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4029174815801184</v>
+        <v>1.11895284874285</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2231179463799133</v>
+        <v>0.05057541737081195</v>
       </c>
       <c r="E3">
-        <v>0.1487658639803442</v>
+        <v>0.03047555788740031</v>
       </c>
       <c r="F3">
-        <v>0.824837045401928</v>
+        <v>0.5003515713810955</v>
       </c>
       <c r="G3">
-        <v>0.3904856432766479</v>
+        <v>0.4209049451075657</v>
       </c>
       <c r="H3">
-        <v>0.5243847230650829</v>
+        <v>0.2670811573854337</v>
       </c>
       <c r="I3">
-        <v>0.961619056993996</v>
+        <v>2.203947040849229</v>
       </c>
       <c r="J3">
-        <v>0.1421067658121089</v>
+        <v>0.04481846306936887</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.491933859935628</v>
+        <v>3.964531538576551</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.772863791967353</v>
+        <v>1.403514635746859</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.368474994892722</v>
+        <v>1.016170345741102</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2255144771000523</v>
+        <v>0.05328071458146155</v>
       </c>
       <c r="E4">
-        <v>0.151039282539327</v>
+        <v>0.03310543578900305</v>
       </c>
       <c r="F4">
-        <v>0.8249840607728487</v>
+        <v>0.4716471194135394</v>
       </c>
       <c r="G4">
-        <v>0.3853062208217324</v>
+        <v>0.3865821485005938</v>
       </c>
       <c r="H4">
-        <v>0.5248901381313829</v>
+        <v>0.2550262894451834</v>
       </c>
       <c r="I4">
-        <v>0.9050041978951811</v>
+        <v>2.022030274560066</v>
       </c>
       <c r="J4">
-        <v>0.1441171771289262</v>
+        <v>0.04605080534981809</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.370363517415143</v>
+        <v>3.606963774407859</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.76272372683303</v>
+        <v>1.305241674247526</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3544040846944654</v>
+        <v>0.9743193636613796</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2265248070752808</v>
+        <v>0.05443534205419276</v>
       </c>
       <c r="E5">
-        <v>0.1519986560217337</v>
+        <v>0.03423707951117549</v>
       </c>
       <c r="F5">
-        <v>0.8252173736551569</v>
+        <v>0.4603342532069448</v>
       </c>
       <c r="G5">
-        <v>0.3832915930706804</v>
+        <v>0.3728610279461861</v>
       </c>
       <c r="H5">
-        <v>0.525180415192338</v>
+        <v>0.2502774527433189</v>
       </c>
       <c r="I5">
-        <v>0.8820202403759936</v>
+        <v>1.948258443190539</v>
       </c>
       <c r="J5">
-        <v>0.1449747945099702</v>
+        <v>0.04663221339682977</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.320662736533194</v>
+        <v>3.461033623000745</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.75896861192021</v>
+        <v>1.266097426089601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3520655116020919</v>
+        <v>0.9673715449487759</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2266946071930338</v>
+        <v>0.05463015923219849</v>
       </c>
       <c r="E6">
-        <v>0.1521599463065444</v>
+        <v>0.03442851927080692</v>
       </c>
       <c r="F6">
-        <v>0.8252665705231124</v>
+        <v>0.458478081942971</v>
       </c>
       <c r="G6">
-        <v>0.382962850670566</v>
+        <v>0.3705979420662828</v>
       </c>
       <c r="H6">
-        <v>0.5252337038514412</v>
+        <v>0.2494984499924158</v>
       </c>
       <c r="I6">
-        <v>0.8782090928121988</v>
+        <v>1.936029227213965</v>
       </c>
       <c r="J6">
-        <v>0.1451195150332261</v>
+        <v>0.04673339926838693</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.312400451077778</v>
+        <v>3.43678828089007</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.758367809997253</v>
+        <v>1.259649764327634</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3682853716031502</v>
+        <v>1.015605816460464</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.225527966272848</v>
+        <v>0.05329607768864975</v>
       </c>
       <c r="E7">
-        <v>0.1510520877288117</v>
+        <v>0.03312045887275339</v>
       </c>
       <c r="F7">
-        <v>0.8249865060132962</v>
+        <v>0.4714930343711643</v>
       </c>
       <c r="G7">
-        <v>0.3852786627062841</v>
+        <v>0.3863960590451825</v>
       </c>
       <c r="H7">
-        <v>0.5248937117052321</v>
+        <v>0.2549615981313593</v>
       </c>
       <c r="I7">
-        <v>0.9046938728842946</v>
+        <v>2.021033958105022</v>
       </c>
       <c r="J7">
-        <v>0.1441285880802745</v>
+        <v>0.04605833208313115</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.369693876004305</v>
+        <v>3.604996619401931</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.762671559244751</v>
+        <v>1.304710211135017</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4395478606005554</v>
+        <v>1.228800037178132</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2206760222655664</v>
+        <v>0.047872992274959</v>
       </c>
       <c r="E8">
-        <v>0.1464527176387866</v>
+        <v>0.02788301186787034</v>
       </c>
       <c r="F8">
-        <v>0.8252745939522796</v>
+        <v>0.5323849995549637</v>
       </c>
       <c r="G8">
-        <v>0.396342253326182</v>
+        <v>0.4585134515807994</v>
       </c>
       <c r="H8">
-        <v>0.5241340068263582</v>
+        <v>0.2805383102946735</v>
       </c>
       <c r="I8">
-        <v>1.022324052184814</v>
+        <v>2.39942767258168</v>
       </c>
       <c r="J8">
-        <v>0.140092872153879</v>
+        <v>0.04378825274748266</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.621100232345185</v>
+        <v>4.345401637206123</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.78497690312301</v>
+        <v>1.511696892507274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5781265642575306</v>
+        <v>1.649494125561006</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2122286397507729</v>
+        <v>0.03905283586215624</v>
       </c>
       <c r="E9">
-        <v>0.1384784527218361</v>
+        <v>0.01975492160153625</v>
       </c>
       <c r="F9">
-        <v>0.8313585810149107</v>
+        <v>0.6664581476168507</v>
       </c>
       <c r="G9">
-        <v>0.4211086567763118</v>
+        <v>0.6104484817165456</v>
       </c>
       <c r="H9">
-        <v>0.5253162531437567</v>
+        <v>0.3368319963094848</v>
       </c>
       <c r="I9">
-        <v>1.255600870901191</v>
+        <v>3.156498110594512</v>
       </c>
       <c r="J9">
-        <v>0.1333970069726931</v>
+        <v>0.04223565479185964</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.108712590691823</v>
+        <v>5.792269778457353</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.840725731586275</v>
+        <v>1.952639974567489</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6792036155396488</v>
+        <v>1.961642124173011</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2066751752465059</v>
+        <v>0.03382569793894774</v>
       </c>
       <c r="E10">
-        <v>0.1332612873910346</v>
+        <v>0.01531273759923479</v>
       </c>
       <c r="F10">
-        <v>0.8392342331979421</v>
+        <v>0.7761854872967859</v>
       </c>
       <c r="G10">
-        <v>0.4412128567615099</v>
+        <v>0.7304115984240127</v>
       </c>
       <c r="H10">
-        <v>0.527824524396749</v>
+        <v>0.3828150058251367</v>
       </c>
       <c r="I10">
-        <v>1.428497202878788</v>
+        <v>3.72533700673128</v>
       </c>
       <c r="J10">
-        <v>0.129226540876715</v>
+        <v>0.04322212479431897</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.463450805740081</v>
+        <v>6.854138167882013</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.889104857935308</v>
+        <v>2.303898297633452</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7250218973471192</v>
+        <v>2.10467075775307</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2042909735779954</v>
+        <v>0.03175467128022547</v>
       </c>
       <c r="E11">
-        <v>0.1310281137320004</v>
+        <v>0.01367768336332809</v>
       </c>
       <c r="F11">
-        <v>0.8435655465445535</v>
+        <v>0.8290924713020331</v>
       </c>
       <c r="G11">
-        <v>0.4507810795431055</v>
+        <v>0.7872631197053011</v>
       </c>
       <c r="H11">
-        <v>0.5293240174856635</v>
+        <v>0.404951779318381</v>
       </c>
       <c r="I11">
-        <v>1.507465272804438</v>
+        <v>3.98770596832631</v>
       </c>
       <c r="J11">
-        <v>0.1274933242362692</v>
+        <v>0.04422002938476766</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.624024511360403</v>
+        <v>7.337461496897731</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.912746947153465</v>
+        <v>2.471060233709807</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7423482154043199</v>
+        <v>2.159012389054567</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2034086161151993</v>
+        <v>0.03101769643556551</v>
       </c>
       <c r="E12">
-        <v>0.1302027061228639</v>
+        <v>0.01311888874545009</v>
       </c>
       <c r="F12">
-        <v>0.8453140411720312</v>
+        <v>0.8496073112086293</v>
       </c>
       <c r="G12">
-        <v>0.4544656905315776</v>
+        <v>0.8091615983399691</v>
       </c>
       <c r="H12">
-        <v>0.5299435582518157</v>
+        <v>0.4135291392605467</v>
       </c>
       <c r="I12">
-        <v>1.537412456396339</v>
+        <v>4.087652906244529</v>
       </c>
       <c r="J12">
-        <v>0.1268606965100574</v>
+        <v>0.04468485970145153</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.684710488730843</v>
+        <v>7.520567563864205</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.921936202998296</v>
+        <v>2.535551118719781</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7386177650551531</v>
+        <v>2.147300419307271</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2035977355070955</v>
+        <v>0.03117426174352644</v>
       </c>
       <c r="E13">
-        <v>0.1303795704253137</v>
+        <v>0.01323646822502678</v>
       </c>
       <c r="F13">
-        <v>0.8449326433947562</v>
+        <v>0.8451668799361585</v>
       </c>
       <c r="G13">
-        <v>0.4536694071630905</v>
+        <v>0.8044282003335326</v>
       </c>
       <c r="H13">
-        <v>0.5298078263360537</v>
+        <v>0.4116728681725021</v>
       </c>
       <c r="I13">
-        <v>1.530960880130294</v>
+        <v>4.066099873044152</v>
       </c>
       <c r="J13">
-        <v>0.1269958879192146</v>
+        <v>0.04458074899229914</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.671646084265149</v>
+        <v>7.481128020111782</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.919946589382619</v>
+        <v>2.521606723272612</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7264478305904163</v>
+        <v>2.109137682986443</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2042179705773943</v>
+        <v>0.03169307350100325</v>
       </c>
       <c r="E14">
-        <v>0.1309598006313717</v>
+        <v>0.01363047173897503</v>
       </c>
       <c r="F14">
-        <v>0.8437072215368744</v>
+        <v>0.8307703163214342</v>
       </c>
       <c r="G14">
-        <v>0.4510829823865379</v>
+        <v>0.7890570498062601</v>
       </c>
       <c r="H14">
-        <v>0.5293739500636718</v>
+        <v>0.4056534260379578</v>
       </c>
       <c r="I14">
-        <v>1.509928180344644</v>
+        <v>3.995916311424082</v>
       </c>
       <c r="J14">
-        <v>0.1274408017734672</v>
+        <v>0.0442564806401613</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.629019612450577</v>
+        <v>7.352523838881979</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.913498204079531</v>
+        <v>2.476341297613857</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7189902377319299</v>
+        <v>2.08578630083781</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2046005522199383</v>
+        <v>0.03201711524003059</v>
       </c>
       <c r="E15">
-        <v>0.1313178479345058</v>
+        <v>0.01387982359978945</v>
       </c>
       <c r="F15">
-        <v>0.8429707415237999</v>
+        <v>0.8220160839222075</v>
       </c>
       <c r="G15">
-        <v>0.4495067260321974</v>
+        <v>0.7796912811835313</v>
       </c>
       <c r="H15">
-        <v>0.5291149281609364</v>
+        <v>0.4019922955499453</v>
       </c>
       <c r="I15">
-        <v>1.497050680483312</v>
+        <v>3.953006503242818</v>
       </c>
       <c r="J15">
-        <v>0.1277164151207231</v>
+        <v>0.04406942801522717</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.602893919735806</v>
+        <v>7.273762088947677</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.909579227393692</v>
+        <v>2.44877397847165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6762059550069921</v>
+        <v>1.952318248335501</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2068338524601732</v>
+        <v>0.03396748328241905</v>
       </c>
       <c r="E16">
-        <v>0.133410058619484</v>
+        <v>0.01542776394904433</v>
       </c>
       <c r="F16">
-        <v>0.8389662932640363</v>
+        <v>0.7727922631523541</v>
       </c>
       <c r="G16">
-        <v>0.4405961038272892</v>
+        <v>0.7267456198524087</v>
       </c>
       <c r="H16">
-        <v>0.5277337566516991</v>
+        <v>0.3813944613030031</v>
       </c>
       <c r="I16">
-        <v>1.423342666385054</v>
+        <v>3.708269362913484</v>
       </c>
       <c r="J16">
-        <v>0.1293431206498212</v>
+        <v>0.04316862667769428</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.452940441451972</v>
+        <v>6.822560902852587</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.887592805414897</v>
+        <v>2.293133102795508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6499171049117649</v>
+        <v>1.870725591276965</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2082403432064197</v>
+        <v>0.03524473267960637</v>
       </c>
       <c r="E17">
-        <v>0.1347295227962082</v>
+        <v>0.01647953330495877</v>
       </c>
       <c r="F17">
-        <v>0.8367019134886959</v>
+        <v>0.7433954846343909</v>
       </c>
       <c r="G17">
-        <v>0.435238383621666</v>
+        <v>0.694877995487488</v>
       </c>
       <c r="H17">
-        <v>0.5269783844717892</v>
+        <v>0.3690838153028295</v>
       </c>
       <c r="I17">
-        <v>1.378204955459836</v>
+        <v>3.559105212271362</v>
       </c>
       <c r="J17">
-        <v>0.1303831337505059</v>
+        <v>0.04276213596790157</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.360740760309142</v>
+        <v>6.545862646683531</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.874524480772891</v>
+        <v>2.199629967864212</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6347812322232755</v>
+        <v>1.823890648223795</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2090626910916846</v>
+        <v>0.03600805078055025</v>
       </c>
       <c r="E18">
-        <v>0.1355016287318431</v>
+        <v>0.01712047358302549</v>
       </c>
       <c r="F18">
-        <v>0.835469927872353</v>
+        <v>0.7267655815184355</v>
       </c>
       <c r="G18">
-        <v>0.4321965206532781</v>
+        <v>0.6767604267572978</v>
       </c>
       <c r="H18">
-        <v>0.5265776450184347</v>
+        <v>0.3621165306144292</v>
       </c>
       <c r="I18">
-        <v>1.352272849441903</v>
+        <v>3.473643999354408</v>
       </c>
       <c r="J18">
-        <v>0.1309967456906165</v>
+        <v>0.04257950677883926</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.307635077417842</v>
+        <v>6.38673610132949</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.867161652543672</v>
+        <v>2.146534985401928</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6296538947531474</v>
+        <v>1.808048538277887</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2093434188782446</v>
+        <v>0.03627133007023886</v>
       </c>
       <c r="E19">
-        <v>0.1357653122032207</v>
+        <v>0.01734352323705579</v>
       </c>
       <c r="F19">
-        <v>0.835064874061203</v>
+        <v>0.7211813330046795</v>
       </c>
       <c r="G19">
-        <v>0.4311734095953454</v>
+        <v>0.670661284767931</v>
       </c>
       <c r="H19">
-        <v>0.5264477496790079</v>
+        <v>0.3597764529565239</v>
       </c>
       <c r="I19">
-        <v>1.343497878663356</v>
+        <v>3.444763477381201</v>
       </c>
       <c r="J19">
-        <v>0.1312071493493789</v>
+        <v>0.0425262283880592</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.289641700547065</v>
+        <v>6.332861310007189</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.864695081842257</v>
+        <v>2.128671892790521</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6527171787537611</v>
+        <v>1.879401217137456</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2080892355575479</v>
+        <v>0.03510577707672624</v>
       </c>
       <c r="E20">
-        <v>0.1345876982944105</v>
+        <v>0.01636381152599942</v>
       </c>
       <c r="F20">
-        <v>0.8369356669432904</v>
+        <v>0.7464956654162194</v>
       </c>
       <c r="G20">
-        <v>0.4358046035291636</v>
+        <v>0.6982481386844057</v>
       </c>
       <c r="H20">
-        <v>0.5270553029142775</v>
+        <v>0.3703824253962011</v>
       </c>
       <c r="I20">
-        <v>1.383006859720325</v>
+        <v>3.574948889502537</v>
       </c>
       <c r="J20">
-        <v>0.1302708253389753</v>
+        <v>0.0428000556509005</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.370563358310875</v>
+        <v>6.575314976903314</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.875899705128063</v>
+        <v>2.209511677056497</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7300230944838404</v>
+        <v>2.120341859580719</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.204035236031288</v>
+        <v>0.03153937651002181</v>
       </c>
       <c r="E21">
-        <v>0.1307888227057123</v>
+        <v>0.01351306408737152</v>
       </c>
       <c r="F21">
-        <v>0.8440642125538886</v>
+        <v>0.8349854870231326</v>
       </c>
       <c r="G21">
-        <v>0.4518410091440757</v>
+        <v>0.7935615320343317</v>
       </c>
       <c r="H21">
-        <v>0.5294999851656286</v>
+        <v>0.4074160368713677</v>
       </c>
       <c r="I21">
-        <v>1.516104822756347</v>
+        <v>4.016514181388857</v>
       </c>
       <c r="J21">
-        <v>0.1273094754458555</v>
+        <v>0.04434929951225541</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.641543331128304</v>
+        <v>7.390295415749705</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.915385820276555</v>
+        <v>2.489603454143065</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7804063443278437</v>
+        <v>2.278875050248018</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2015051577107805</v>
+        <v>0.02948573265238608</v>
       </c>
       <c r="E22">
-        <v>0.1284240959802059</v>
+        <v>0.01200434984288812</v>
       </c>
       <c r="F22">
-        <v>0.8493548109438791</v>
+        <v>0.8956434440865308</v>
       </c>
       <c r="G22">
-        <v>0.462679473436026</v>
+        <v>0.858033494450396</v>
       </c>
       <c r="H22">
-        <v>0.5313992405141192</v>
+        <v>0.4327643966117876</v>
       </c>
       <c r="I22">
-        <v>1.603345883954262</v>
+        <v>4.308601983627995</v>
       </c>
       <c r="J22">
-        <v>0.1255122866399319</v>
+        <v>0.04587280383131542</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.817943866935337</v>
+        <v>7.923433456959771</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.942571540708741</v>
+        <v>2.679666137038453</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7535289655561996</v>
+        <v>2.194154369103785</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2028445609502203</v>
+        <v>0.03055533322398674</v>
       </c>
       <c r="E23">
-        <v>0.1296753614042974</v>
+        <v>0.01277542780249963</v>
       </c>
       <c r="F23">
-        <v>0.8464731001840988</v>
+        <v>0.8629930689413499</v>
       </c>
       <c r="G23">
-        <v>0.4568618672442</v>
+        <v>0.8234092894530392</v>
       </c>
       <c r="H23">
-        <v>0.5303579281152508</v>
+        <v>0.4191239119582377</v>
       </c>
       <c r="I23">
-        <v>1.556761052234663</v>
+        <v>4.152362290215251</v>
       </c>
       <c r="J23">
-        <v>0.1264587898118208</v>
+        <v>0.04501011089974227</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.723861305318991</v>
+        <v>7.638826478060849</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.927935307278375</v>
+        <v>2.577539060101742</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6514513340375174</v>
+        <v>1.875478739285711</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2081575085371199</v>
+        <v>0.03516850877997513</v>
       </c>
       <c r="E24">
-        <v>0.1346517750164526</v>
+        <v>0.0164160167536096</v>
       </c>
       <c r="F24">
-        <v>0.8368297695163847</v>
+        <v>0.7450932342513141</v>
       </c>
       <c r="G24">
-        <v>0.4355484960554605</v>
+        <v>0.6967238660714514</v>
       </c>
       <c r="H24">
-        <v>0.5270204236381346</v>
+        <v>0.3697949817520509</v>
       </c>
       <c r="I24">
-        <v>1.380835862081938</v>
+        <v>3.567785049046023</v>
       </c>
       <c r="J24">
-        <v>0.130321551090681</v>
+        <v>0.04278275369282625</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.366122869308867</v>
+        <v>6.561999734296649</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.875277498047012</v>
+        <v>2.205042106493408</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5407649891818096</v>
+        <v>1.535260545617973</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2143993949582494</v>
+        <v>0.04123006238785187</v>
       </c>
       <c r="E25">
-        <v>0.140523364711048</v>
+        <v>0.02170231109543774</v>
       </c>
       <c r="F25">
-        <v>0.829117586449712</v>
+        <v>0.6283922512578499</v>
       </c>
       <c r="G25">
-        <v>0.4140761861655449</v>
+        <v>0.568030293496733</v>
       </c>
       <c r="H25">
-        <v>0.5247092557513469</v>
+        <v>0.3208588990680852</v>
       </c>
       <c r="I25">
-        <v>1.192223029368051</v>
+        <v>2.949742065448149</v>
       </c>
       <c r="J25">
-        <v>0.1350773524862809</v>
+        <v>0.04230982982118192</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.977401309736734</v>
+        <v>5.4012086920917</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.824348299289767</v>
+        <v>1.829015894332713</v>
       </c>
     </row>
   </sheetData>
